--- a/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_13_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.15482331800052</v>
+        <v>89.97251336849384</v>
       </c>
       <c r="D2" t="n">
-        <v>1.273766863966871</v>
+        <v>1.227434709993963</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.18266588005703</v>
+        <v>88.84547355312688</v>
       </c>
       <c r="D3" t="n">
-        <v>1.039620615282778</v>
+        <v>1.265917162378317</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.99462754478245</v>
+        <v>88.0490046540276</v>
       </c>
       <c r="D4" t="n">
-        <v>1.372728033428724</v>
+        <v>1.494234078799172</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.04716216421035</v>
+        <v>86.97145219704539</v>
       </c>
       <c r="D5" t="n">
-        <v>1.29992304887138</v>
+        <v>1.472186567121797</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.11922616132864</v>
+        <v>85.71602844648031</v>
       </c>
       <c r="D6" t="n">
-        <v>1.367178867789073</v>
+        <v>1.380888664000137</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.89885700398496</v>
+        <v>84.93702733541001</v>
       </c>
       <c r="D7" t="n">
-        <v>1.486034706041234</v>
+        <v>1.467074290085541</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.04802160958735</v>
+        <v>83.94553029469402</v>
       </c>
       <c r="D8" t="n">
-        <v>1.647811542214867</v>
+        <v>1.408830237074128</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.98351131652232</v>
+        <v>83.0444232015809</v>
       </c>
       <c r="D9" t="n">
-        <v>1.634108548020611</v>
+        <v>1.354273472400872</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.87677486718353</v>
+        <v>81.77294722136494</v>
       </c>
       <c r="D10" t="n">
-        <v>1.445759228280231</v>
+        <v>1.402382321187195</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.91880052077322</v>
+        <v>80.95177204118549</v>
       </c>
       <c r="D11" t="n">
-        <v>1.501328327567947</v>
+        <v>1.63996408605034</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.02706191911946</v>
+        <v>79.84577895259413</v>
       </c>
       <c r="D12" t="n">
-        <v>1.621529948063946</v>
+        <v>1.579624730323224</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.2706301418694</v>
+        <v>78.86284815549936</v>
       </c>
       <c r="D13" t="n">
-        <v>1.695233933832546</v>
+        <v>1.647402982394218</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.78178833358507</v>
+        <v>77.81313717954204</v>
       </c>
       <c r="D14" t="n">
-        <v>1.56365469586878</v>
+        <v>1.778241835372385</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.75747350411729</v>
+        <v>76.84651415466092</v>
       </c>
       <c r="D15" t="n">
-        <v>1.589976292816388</v>
+        <v>1.657696187256171</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.10970304558914</v>
+        <v>75.69503596362752</v>
       </c>
       <c r="D16" t="n">
-        <v>1.843565679871304</v>
+        <v>1.704246962771642</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.1622009902637</v>
+        <v>75.10023992189628</v>
       </c>
       <c r="D17" t="n">
-        <v>1.808800527581792</v>
+        <v>1.692959877796428</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.9291733173488</v>
+        <v>73.89760925943169</v>
       </c>
       <c r="D18" t="n">
-        <v>1.799077660101117</v>
+        <v>1.685538152659358</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.85157592785038</v>
+        <v>72.57535016514497</v>
       </c>
       <c r="D19" t="n">
-        <v>1.864994082390658</v>
+        <v>1.918784411145146</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.31302023627762</v>
+        <v>72.0733772681497</v>
       </c>
       <c r="D20" t="n">
-        <v>1.615933846567651</v>
+        <v>1.751612176795772</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.9704674862983</v>
+        <v>70.83224649693902</v>
       </c>
       <c r="D21" t="n">
-        <v>1.989848444485765</v>
+        <v>1.770115701295431</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.92282650208385</v>
+        <v>69.80315219561643</v>
       </c>
       <c r="D22" t="n">
-        <v>2.053333540097638</v>
+        <v>1.811076485657982</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.2513747089905</v>
+        <v>68.98347316674993</v>
       </c>
       <c r="D23" t="n">
-        <v>1.646658744893608</v>
+        <v>2.047506715540363</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.77243441325233</v>
+        <v>67.77440319013357</v>
       </c>
       <c r="D24" t="n">
-        <v>2.042795944770632</v>
+        <v>2.155520893658468</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.13179488902954</v>
+        <v>66.46216145652893</v>
       </c>
       <c r="D25" t="n">
-        <v>1.928725781176344</v>
+        <v>1.789937222552818</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.17828971132018</v>
+        <v>65.52155121402264</v>
       </c>
       <c r="D26" t="n">
-        <v>2.012029955871218</v>
+        <v>2.048437067586661</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.99264145635152</v>
+        <v>65.07024437261381</v>
       </c>
       <c r="D27" t="n">
-        <v>1.986399347076595</v>
+        <v>2.154235859333361</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.8488190107431</v>
+        <v>64.07035785796796</v>
       </c>
       <c r="D28" t="n">
-        <v>2.107710603163015</v>
+        <v>2.208801423986984</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.82477727658798</v>
+        <v>62.89689183894455</v>
       </c>
       <c r="D29" t="n">
-        <v>2.05981083469959</v>
+        <v>1.986243817794024</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.89086266957404</v>
+        <v>61.82962814602988</v>
       </c>
       <c r="D30" t="n">
-        <v>2.110784002469356</v>
+        <v>2.180684929027013</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.29771896918891</v>
+        <v>61.04670229992971</v>
       </c>
       <c r="D31" t="n">
-        <v>2.092086133957667</v>
+        <v>2.035293896073493</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.89301843225658</v>
+        <v>59.63762276962875</v>
       </c>
       <c r="D32" t="n">
-        <v>1.907799241886687</v>
+        <v>2.147720494851321</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.80385148900368</v>
+        <v>58.92266970512488</v>
       </c>
       <c r="D33" t="n">
-        <v>2.098417338042891</v>
+        <v>2.304837860747762</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.18948852524798</v>
+        <v>57.6248119903145</v>
       </c>
       <c r="D34" t="n">
-        <v>2.200031488113825</v>
+        <v>2.104638758794035</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.7346110825878</v>
+        <v>56.79694631911525</v>
       </c>
       <c r="D35" t="n">
-        <v>2.30404303038634</v>
+        <v>2.150565939870188</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.85811866126495</v>
+        <v>56.22511672013236</v>
       </c>
       <c r="D36" t="n">
-        <v>2.580303696618717</v>
+        <v>2.261725267249952</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.87374312474272</v>
+        <v>54.70179010657935</v>
       </c>
       <c r="D37" t="n">
-        <v>2.380571403943012</v>
+        <v>2.471791988388158</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.08152290964011</v>
+        <v>53.77355736886417</v>
       </c>
       <c r="D38" t="n">
-        <v>2.076025178156576</v>
+        <v>2.53826068928321</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.06847053141896</v>
+        <v>53.15495067955509</v>
       </c>
       <c r="D39" t="n">
-        <v>2.543237300420617</v>
+        <v>2.842449986275847</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.81553375030268</v>
+        <v>51.6103572241846</v>
       </c>
       <c r="D40" t="n">
-        <v>2.391761369782952</v>
+        <v>2.174169713903975</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.74933554772402</v>
+        <v>50.75678646359747</v>
       </c>
       <c r="D41" t="n">
-        <v>2.20060621796756</v>
+        <v>2.383216446116777</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.5349600608241</v>
+        <v>49.82204438855329</v>
       </c>
       <c r="D42" t="n">
-        <v>2.4107579801734</v>
+        <v>2.802133235476325</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.74198572849984</v>
+        <v>49.15988195856449</v>
       </c>
       <c r="D43" t="n">
-        <v>2.521129773992516</v>
+        <v>2.732338961638307</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.85085737462974</v>
+        <v>48.24269875493031</v>
       </c>
       <c r="D44" t="n">
-        <v>2.717132955058489</v>
+        <v>2.637772440342514</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.16245066101181</v>
+        <v>46.84602917309829</v>
       </c>
       <c r="D45" t="n">
-        <v>2.530150452490303</v>
+        <v>2.375880094630041</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.67306148152807</v>
+        <v>46.12788743090336</v>
       </c>
       <c r="D46" t="n">
-        <v>2.433655324135499</v>
+        <v>2.724472877305807</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.46112645700754</v>
+        <v>44.99476466082494</v>
       </c>
       <c r="D47" t="n">
-        <v>2.721870341138944</v>
+        <v>2.835373297561977</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.94591709531751</v>
+        <v>43.83816677998617</v>
       </c>
       <c r="D48" t="n">
-        <v>2.736803543158521</v>
+        <v>2.673005646428691</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.0944845321062</v>
+        <v>42.82357755016984</v>
       </c>
       <c r="D49" t="n">
-        <v>2.512955368080442</v>
+        <v>2.395221999682812</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.950992194751</v>
+        <v>41.623735742814</v>
       </c>
       <c r="D50" t="n">
-        <v>2.92061341822895</v>
+        <v>2.608684954737912</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.59197572965091</v>
+        <v>40.92967908061676</v>
       </c>
       <c r="D51" t="n">
-        <v>3.112275578651021</v>
+        <v>2.71532101604784</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.81342668209054</v>
+        <v>40.21398479930016</v>
       </c>
       <c r="D52" t="n">
-        <v>3.056539079969458</v>
+        <v>2.813094679690935</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.10683145440467</v>
+        <v>39.07094757419053</v>
       </c>
       <c r="D53" t="n">
-        <v>2.313108074353906</v>
+        <v>2.807112833873602</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.26066789316468</v>
+        <v>37.62359844186096</v>
       </c>
       <c r="D54" t="n">
-        <v>2.904902449686466</v>
+        <v>3.414608734350653</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.02191091259019</v>
+        <v>36.72336740234886</v>
       </c>
       <c r="D55" t="n">
-        <v>2.689667061281364</v>
+        <v>3.022535619245241</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.84955968936742</v>
+        <v>35.94969907292126</v>
       </c>
       <c r="D56" t="n">
-        <v>3.291957544282966</v>
+        <v>3.318931949513626</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.09102224217461</v>
+        <v>34.96133218502141</v>
       </c>
       <c r="D57" t="n">
-        <v>2.712359477348721</v>
+        <v>2.902508545793398</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.14218311549443</v>
+        <v>33.66011073844685</v>
       </c>
       <c r="D58" t="n">
-        <v>2.991014673730676</v>
+        <v>3.083519667792985</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.32763513106696</v>
+        <v>32.97104742453362</v>
       </c>
       <c r="D59" t="n">
-        <v>2.939431228509436</v>
+        <v>2.617121092402365</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.90781542347658</v>
+        <v>32.01022250680664</v>
       </c>
       <c r="D60" t="n">
-        <v>3.229204726987412</v>
+        <v>3.078725989639871</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.04538006896472</v>
+        <v>30.85193033987675</v>
       </c>
       <c r="D61" t="n">
-        <v>2.545192394590216</v>
+        <v>3.040517308926761</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.14401365681619</v>
+        <v>30.12435181374084</v>
       </c>
       <c r="D62" t="n">
-        <v>2.976236503400937</v>
+        <v>2.922048705964206</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.81805288856939</v>
+        <v>28.76549303221166</v>
       </c>
       <c r="D63" t="n">
-        <v>3.027238788558388</v>
+        <v>2.943857329748076</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.13801301950662</v>
+        <v>28.15256455812982</v>
       </c>
       <c r="D64" t="n">
-        <v>3.134840693316804</v>
+        <v>3.168065649388649</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.97886318541011</v>
+        <v>26.67806502080982</v>
       </c>
       <c r="D65" t="n">
-        <v>3.19934447301148</v>
+        <v>3.279324926942637</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.00297562535936</v>
+        <v>26.12662293016427</v>
       </c>
       <c r="D66" t="n">
-        <v>2.985887401444937</v>
+        <v>3.159984916768471</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.10722684381009</v>
+        <v>24.86038413061384</v>
       </c>
       <c r="D67" t="n">
-        <v>3.549568455606814</v>
+        <v>3.141352869632409</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.82646314194284</v>
+        <v>24.54738642228412</v>
       </c>
       <c r="D68" t="n">
-        <v>3.21193651072097</v>
+        <v>3.044668861047232</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.74946445298673</v>
+        <v>22.69656909966071</v>
       </c>
       <c r="D69" t="n">
-        <v>3.539108289766854</v>
+        <v>3.421558586846226</v>
       </c>
     </row>
   </sheetData>
